--- a/pred_ohlcv/54_21/2019-10-30 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XLM ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-95222.15677065001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-87046.34237065</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-85846.34237065</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-82499.16027065</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4658134.62354936</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4615860.33185267</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4615860.33185267</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4610291.684774349</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-8732444.84737435</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-729848.1205743499</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-729947.3937743499</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-14146320.48907865</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-14138461.49603116</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-14063502.69433116</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-14065669.27203116</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-14024770.46883116</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-13419814.32523115</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-13416742.29623115</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-13256792.95513115</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-13341893.90973116</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-13394106.00043116</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-13396888.44303116</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-13359154.70047987</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-13563871.06687987</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-13523410.8439293</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-13527673.8439293</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-13527673.8439293</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-13525933.7026293</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-13527609.9384293</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-13524277.0804293</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-13526096.07447368</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-13504891.41997368</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-13477029.0144897</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-13501880.1220897</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XLM ohlcv.xlsx
@@ -6762,7 +6762,7 @@
         <v>-4615860.33185267</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4610291.684774349</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-729848.1205743499</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-729947.3937743499</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-14146320.48907865</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-14138461.49603116</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-14063502.69433116</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-14065669.27203116</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-14024770.46883116</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-14014770.46883116</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-14014770.46883116</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-13987774.11903116</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-12933784.39823115</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-12933784.39823115</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-13419814.32523115</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-13416742.29623115</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-13256792.95513115</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-13341893.90973116</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-13493737.75353116</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-13442847.90213116</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-13356252.58013116</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-13356252.58013116</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-13424502.41033116</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-13424502.41033116</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-13102534.19503116</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-13187134.19503116</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-13398611.53413116</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-13453446.98373116</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-13362440.68543116</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-13346580.04653116</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-13346580.04653116</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-13369413.04653116</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-13383524.06773116</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-13383524.06773116</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-13378224.06773116</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-13379785.72623116</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-13379151.20846467</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-13382221.79088902</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-13384636.52168902</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-13384636.52168902</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-13427006.01668902</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-13427006.01668902</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-13426683.18314392</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-13398346.11504392</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-13480182.59954392</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-13381453.26474392</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-13378617.01757987</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-13359154.70047987</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-13361611.84987987</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-13365318.84987987</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-13365318.84987987</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-13365588.26347987</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-13365588.26347987</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-13388671.98687987</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-13388671.98687987</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-13554639.79777987</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-13559067.12727987</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-13575276.70037987</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-13583364.80767987</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-13579497.32497988</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-13580134.76007988</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-13577951.78137987</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-13580584.86837987</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-13563871.06687987</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-13519456.5640293</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-13510708.1040293</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-13496251.63407368</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-13496251.63407368</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-13498574.63397368</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-13498574.63397368</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-13504647.59957368</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-13502902.92447368</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-13502902.92447368</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-13506638.25327368</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-13506422.66807368</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-13574149.73327368</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-13574149.73327368</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-13590593.44107368</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-13504891.41997368</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-13462236.5101897</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-13477039.0144897</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-13478029.0144897</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-13501880.1220897</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-13489343.3948897</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-13489393.3948897</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-13481168.4575897</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-13494559.3294897</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-13358301.9781897</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-13373070.9661897</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-13373070.9661897</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-13380349.04138971</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-13445060.00298971</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-13425848.33948971</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-13425848.33948971</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-13466356.13158971</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-13480664.16508971</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-13490939.99858971</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-13470579.94599637</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-13484879.94599637</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-13484879.94599637</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-13491555.46529637</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-13491555.46529637</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-13491625.13839637</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-13491359.68269637</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-13481506.95689637</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-13481506.95689637</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-13480157.89279637</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-13480803.89279637</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
